--- a/SMA/home/static/home/Outputs/topic_reviews.xlsx
+++ b/SMA/home/static/home/Outputs/topic_reviews.xlsx
@@ -25,69 +25,78 @@
     <t>Review</t>
   </si>
   <si>
+    <t>https://www.google.com/maps/contrib/112604660265323282259?hl=en-IN</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/contrib/117783682876409289235?hl=en-IN</t>
+  </si>
+  <si>
     <t>https://www.google.com/maps/contrib/104833993967126646013?hl=en-IN</t>
   </si>
   <si>
-    <t>https://www.google.com/maps/contrib/117783682876409289235?hl=en-IN</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/contrib/112604660265323282259?hl=en-IN</t>
+    <t>https://www.google.com/maps/contrib/103790078657358482290?hl=en-IN</t>
   </si>
   <si>
     <t>https://www.google.com/maps/contrib/109548102374173254967?hl=en-IN</t>
   </si>
   <si>
-    <t>https://www.google.com/maps/contrib/103790078657358482290?hl=en-IN</t>
-  </si>
-  <si>
     <t>https://www.google.com/maps/contrib/103970686567140226577?hl=en-IN</t>
   </si>
   <si>
     <t>https://www.google.com/maps/contrib/113623385665016028968?hl=en-IN</t>
   </si>
   <si>
+    <t>also you can order through screens installed next to the shops.</t>
+  </si>
+  <si>
+    <t>even foods at kfc and other stalls</t>
+  </si>
+  <si>
+    <t>after undergoing an intense renovation, blr airport boasts a very modern outdoor hub called the quad which has a collection of shops, dine-in restaurants and local handicraft stores.</t>
+  </si>
+  <si>
     <t>there will be no food available in the flights or nearby airport.</t>
   </si>
   <si>
-    <t>after undergoing an intense renovation, blr airport boasts a very modern outdoor hub called the quad which has a collection of shops, dine-in restaurants and local handicraft stores.</t>
-  </si>
-  <si>
-    <t>also you can order through screens installed next to the shops.</t>
+    <t>@blr lounges, fantastic foods and professional staffs.</t>
   </si>
   <si>
     <t>many options for shopping for gentlemen, ladies and kids.</t>
   </si>
   <si>
-    <t>@blr lounges, fantastic foods and professional staffs.</t>
-  </si>
-  <si>
     <t>food court is expensive only things that's affordable and filling are subway ( which is outside) and kfc (which is after security check)</t>
   </si>
   <si>
     <t>all the thinking are well maintained and they have a lot of food stalls different brand stores from which you can shop.</t>
   </si>
   <si>
-    <t>even foods at kfc and other stalls</t>
+    <t>https://www.google.com/maps/contrib/101993350957137083050?hl=en-IN</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/contrib/103307746564088038368?hl=en-IN</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/contrib/105369451140933551640?hl=en-IN</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/contrib/100426704876168223546?hl=en-IN</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/contrib/102208144670745677594?hl=en-IN</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/contrib/117688832511760922007?hl=en-IN</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/contrib/110580429694895244738?hl=en-IN</t>
   </si>
   <si>
     <t>https://www.google.com/maps/contrib/106642865101698340925?hl=en-IN</t>
   </si>
   <si>
-    <t>https://www.google.com/maps/contrib/101993350957137083050?hl=en-IN</t>
-  </si>
-  <si>
     <t>https://www.google.com/maps/contrib/117795025441873728547?hl=en-IN</t>
   </si>
   <si>
-    <t>https://www.google.com/maps/contrib/105369451140933551640?hl=en-IN</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/contrib/100426704876168223546?hl=en-IN</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/contrib/117688832511760922007?hl=en-IN</t>
-  </si>
-  <si>
     <t>https://www.google.com/maps/contrib/103169367518269801303?hl=en-IN</t>
   </si>
   <si>
@@ -97,73 +106,64 @@
     <t>https://www.google.com/maps/contrib/115963340488092836916?hl=en-IN</t>
   </si>
   <si>
-    <t>https://www.google.com/maps/contrib/110580429694895244738?hl=en-IN</t>
-  </si>
-  <si>
     <t>https://www.google.com/maps/contrib/116953710933005310627?hl=en-IN</t>
   </si>
   <si>
-    <t>https://www.google.com/maps/contrib/102208144670745677594?hl=en-IN</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/contrib/103307746564088038368?hl=en-IN</t>
-  </si>
-  <si>
     <t>https://www.google.com/maps/contrib/108096060312713265557?hl=en-IN</t>
   </si>
   <si>
+    <t>l travelled during covid-19 pandemic albeit the airport are maintain the social distancing.the thermal scanner are used to check the passengers.</t>
+  </si>
+  <si>
+    <t>well maintained and nice ambience... but very far from main city..</t>
+  </si>
+  <si>
+    <t>staffs are good  airport are neat and clean but far away from city airport buses must stop in one district center at night time  so that female travelers may board the flight easily and without any fear</t>
+  </si>
+  <si>
+    <t>covid-19. location is very good out of city area, peripheral area well maintained with vertical gardening flowers.</t>
+  </si>
+  <si>
+    <t>everything is neat and clean.</t>
+  </si>
+  <si>
+    <t>otherwise it's well maintained.</t>
+  </si>
+  <si>
+    <t>well maintained, place for domestic and international travel, even during covid-19 the government advisories are strictly enforced and followed!</t>
+  </si>
+  <si>
+    <t>well maintained and had best facilities for all kind of passengers...</t>
+  </si>
+  <si>
     <t>all social distancing protocols maintained and extremely hygienic.</t>
-  </si>
-  <si>
-    <t>the airport also clean and fresh.</t>
-  </si>
-  <si>
-    <t>l travelled during covid-19 pandemic albeit the airport are maintain the social distancing.the thermal scanner are used to check the passengers.</t>
   </si>
   <si>
     <t xml:space="preserve">it was very neat and clean with all facilities
 </t>
   </si>
   <si>
-    <t>staffs are good  airport are neat and clean but far away from city airport buses must stop in one district center at night time  so that female travelers may board the flight easily and without any fear</t>
+    <t>very near and clean.</t>
+  </si>
+  <si>
+    <t>, it's clean and one of the best international airports in india.</t>
   </si>
   <si>
     <t>as it's a international airport, everything has maintained carefully as per international standards, very beautiful and well sanitized maintained by airport authorities during</t>
   </si>
   <si>
-    <t>well maintained, place for domestic and international travel, even during covid-19 the government advisories are strictly enforced and followed!</t>
-  </si>
-  <si>
-    <t>everything is neat and clean.</t>
-  </si>
-  <si>
-    <t>, it's clean and one of the best international airports in india.</t>
-  </si>
-  <si>
-    <t>covid-19. location is very good out of city area, peripheral area well maintained with vertical gardening flowers.</t>
-  </si>
-  <si>
-    <t>very near and clean.</t>
-  </si>
-  <si>
     <t xml:space="preserve">there are no toilets before health screening, this has to be taken care off when people are waiting for such a long time.  </t>
   </si>
   <si>
     <t>from entry to exit its was guided and maintained well.</t>
   </si>
   <si>
-    <t>well maintained and had best facilities for all kind of passengers...</t>
+    <t>the airport also clean and fresh.</t>
   </si>
   <si>
     <t>airport is well maintained, cleaned and disinfected thoroughly.</t>
   </si>
   <si>
-    <t>otherwise it's well maintained.</t>
-  </si>
-  <si>
-    <t>well maintained and nice ambience... but very far from main city..</t>
-  </si>
-  <si>
     <t>neat clean and luxurious.</t>
   </si>
   <si>
@@ -173,12 +173,12 @@
     <t>https://www.google.com/maps/contrib/100756697861900194649?hl=en-IN</t>
   </si>
   <si>
+    <t>you will come, take boarding passes on your own from vending machines and even bag tags.</t>
+  </si>
+  <si>
     <t>it's infrastructure is very impressive.</t>
   </si>
   <si>
-    <t>you will come, take boarding passes on your own from vending machines and even bag tags.</t>
-  </si>
-  <si>
     <t>banglore airport is like a palace for the people , the facilities the infrastructure</t>
   </si>
   <si>
@@ -189,22 +189,22 @@
   </si>
   <si>
     <t>security could be improved once the entry is made into the airport premises, specially in covid situation</t>
+  </si>
+  <si>
+    <t>the staff is polite and helpful.</t>
+  </si>
+  <si>
+    <t>thanks to every staffs.</t>
   </si>
   <si>
     <t xml:space="preserve">helpful staff, overall experience was very good. 
 </t>
   </si>
   <si>
+    <t>thanks to the staff anyways for keeping up with the crowd patiently.</t>
+  </si>
+  <si>
     <t>from immigration ans security staff all the way to check-in and handlers everyone is courteous and diligent.</t>
-  </si>
-  <si>
-    <t>thanks to every staffs.</t>
-  </si>
-  <si>
-    <t>the staff is polite and helpful.</t>
-  </si>
-  <si>
-    <t>thanks to the staff anyways for keeping up with the crowd patiently.</t>
   </si>
 </sst>
 </file>
@@ -599,7 +599,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -607,7 +607,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -615,7 +615,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -623,7 +623,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -631,7 +631,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
@@ -639,7 +639,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
@@ -647,7 +647,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
@@ -702,7 +702,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
         <v>33</v>
@@ -710,7 +710,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>34</v>
@@ -718,7 +718,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
         <v>35</v>
@@ -742,7 +742,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>38</v>
@@ -750,7 +750,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
         <v>39</v>
@@ -758,7 +758,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
         <v>40</v>
@@ -766,7 +766,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
         <v>41</v>
@@ -774,7 +774,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
         <v>42</v>
@@ -782,7 +782,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
         <v>43</v>
@@ -790,7 +790,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
         <v>44</v>
@@ -798,10 +798,10 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -809,15 +809,15 @@
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -880,7 +880,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>51</v>
@@ -888,7 +888,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
         <v>52</v>
@@ -938,7 +938,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>57</v>
@@ -946,15 +946,15 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -962,31 +962,31 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
         <v>60</v>
@@ -994,7 +994,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="B10" t="s">
         <v>61</v>

--- a/SMA/home/static/home/Outputs/topic_reviews.xlsx
+++ b/SMA/home/static/home/Outputs/topic_reviews.xlsx
@@ -28,115 +28,115 @@
     <t>https://www.google.com/maps/contrib/112604660265323282259?hl=en-IN</t>
   </si>
   <si>
+    <t>https://www.google.com/maps/contrib/113623385665016028968?hl=en-IN</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/contrib/104833993967126646013?hl=en-IN</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/contrib/103790078657358482290?hl=en-IN</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/contrib/103970686567140226577?hl=en-IN</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/contrib/109548102374173254967?hl=en-IN</t>
+  </si>
+  <si>
     <t>https://www.google.com/maps/contrib/117783682876409289235?hl=en-IN</t>
   </si>
   <si>
-    <t>https://www.google.com/maps/contrib/104833993967126646013?hl=en-IN</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/contrib/103790078657358482290?hl=en-IN</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/contrib/109548102374173254967?hl=en-IN</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/contrib/103970686567140226577?hl=en-IN</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/contrib/113623385665016028968?hl=en-IN</t>
-  </si>
-  <si>
     <t>also you can order through screens installed next to the shops.</t>
   </si>
   <si>
+    <t>all the thinking are well maintained and they have a lot of food stalls different brand stores from which you can shop.</t>
+  </si>
+  <si>
+    <t>there will be no food available in the flights or nearby airport.</t>
+  </si>
+  <si>
+    <t>@blr lounges, fantastic foods and professional staffs.</t>
+  </si>
+  <si>
     <t>even foods at kfc and other stalls</t>
   </si>
   <si>
+    <t>food court is expensive only things that's affordable and filling are subway ( which is outside) and kfc (which is after security check)</t>
+  </si>
+  <si>
+    <t>many options for shopping for gentlemen, ladies and kids.</t>
+  </si>
+  <si>
     <t>after undergoing an intense renovation, blr airport boasts a very modern outdoor hub called the quad which has a collection of shops, dine-in restaurants and local handicraft stores.</t>
   </si>
   <si>
-    <t>there will be no food available in the flights or nearby airport.</t>
-  </si>
-  <si>
-    <t>@blr lounges, fantastic foods and professional staffs.</t>
-  </si>
-  <si>
-    <t>many options for shopping for gentlemen, ladies and kids.</t>
-  </si>
-  <si>
-    <t>food court is expensive only things that's affordable and filling are subway ( which is outside) and kfc (which is after security check)</t>
-  </si>
-  <si>
-    <t>all the thinking are well maintained and they have a lot of food stalls different brand stores from which you can shop.</t>
+    <t>https://www.google.com/maps/contrib/116953710933005310627?hl=en-IN</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/contrib/100426704876168223546?hl=en-IN</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/contrib/117688832511760922007?hl=en-IN</t>
   </si>
   <si>
     <t>https://www.google.com/maps/contrib/101993350957137083050?hl=en-IN</t>
   </si>
   <si>
+    <t>https://www.google.com/maps/contrib/108120031000898312956?hl=en-IN</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/contrib/108096060312713265557?hl=en-IN</t>
+  </si>
+  <si>
     <t>https://www.google.com/maps/contrib/103307746564088038368?hl=en-IN</t>
   </si>
   <si>
+    <t>https://www.google.com/maps/contrib/117795025441873728547?hl=en-IN</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/contrib/103169367518269801303?hl=en-IN</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/contrib/102208144670745677594?hl=en-IN</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/contrib/110580429694895244738?hl=en-IN</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/contrib/106642865101698340925?hl=en-IN</t>
+  </si>
+  <si>
     <t>https://www.google.com/maps/contrib/105369451140933551640?hl=en-IN</t>
   </si>
   <si>
-    <t>https://www.google.com/maps/contrib/100426704876168223546?hl=en-IN</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/contrib/102208144670745677594?hl=en-IN</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/contrib/117688832511760922007?hl=en-IN</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/contrib/110580429694895244738?hl=en-IN</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/contrib/106642865101698340925?hl=en-IN</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/contrib/117795025441873728547?hl=en-IN</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/contrib/103169367518269801303?hl=en-IN</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/contrib/108120031000898312956?hl=en-IN</t>
-  </si>
-  <si>
     <t>https://www.google.com/maps/contrib/115963340488092836916?hl=en-IN</t>
   </si>
   <si>
-    <t>https://www.google.com/maps/contrib/116953710933005310627?hl=en-IN</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/contrib/108096060312713265557?hl=en-IN</t>
-  </si>
-  <si>
-    <t>l travelled during covid-19 pandemic albeit the airport are maintain the social distancing.the thermal scanner are used to check the passengers.</t>
+    <t>airport is well maintained, cleaned and disinfected thoroughly.</t>
+  </si>
+  <si>
+    <t>as it's a international airport, everything has maintained carefully as per international standards, very beautiful and well sanitized maintained by airport authorities during</t>
+  </si>
+  <si>
+    <t>well maintained, place for domestic and international travel, even during covid-19 the government advisories are strictly enforced and followed!</t>
+  </si>
+  <si>
+    <t>, it's clean and one of the best international airports in india.</t>
+  </si>
+  <si>
+    <t>the airport also clean and fresh.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">there are no toilets before health screening, this has to be taken care off when people are waiting for such a long time.  </t>
+  </si>
+  <si>
+    <t>neat clean and luxurious.</t>
   </si>
   <si>
     <t>well maintained and nice ambience... but very far from main city..</t>
   </si>
   <si>
-    <t>staffs are good  airport are neat and clean but far away from city airport buses must stop in one district center at night time  so that female travelers may board the flight easily and without any fear</t>
-  </si>
-  <si>
     <t>covid-19. location is very good out of city area, peripheral area well maintained with vertical gardening flowers.</t>
-  </si>
-  <si>
-    <t>everything is neat and clean.</t>
-  </si>
-  <si>
-    <t>otherwise it's well maintained.</t>
-  </si>
-  <si>
-    <t>well maintained, place for domestic and international travel, even during covid-19 the government advisories are strictly enforced and followed!</t>
-  </si>
-  <si>
-    <t>well maintained and had best facilities for all kind of passengers...</t>
-  </si>
-  <si>
-    <t>all social distancing protocols maintained and extremely hygienic.</t>
   </si>
   <si>
     <t xml:space="preserve">it was very neat and clean with all facilities
@@ -146,55 +146,49 @@
     <t>very near and clean.</t>
   </si>
   <si>
-    <t>, it's clean and one of the best international airports in india.</t>
-  </si>
-  <si>
-    <t>as it's a international airport, everything has maintained carefully as per international standards, very beautiful and well sanitized maintained by airport authorities during</t>
-  </si>
-  <si>
-    <t xml:space="preserve">there are no toilets before health screening, this has to be taken care off when people are waiting for such a long time.  </t>
+    <t>otherwise it's well maintained.</t>
+  </si>
+  <si>
+    <t>well maintained and had best facilities for all kind of passengers...</t>
+  </si>
+  <si>
+    <t>all social distancing protocols maintained and extremely hygienic.</t>
+  </si>
+  <si>
+    <t>l travelled during covid-19 pandemic albeit the airport are maintain the social distancing.the thermal scanner are used to check the passengers.</t>
+  </si>
+  <si>
+    <t>everything is neat and clean.</t>
+  </si>
+  <si>
+    <t>staffs are good  airport are neat and clean but far away from city airport buses must stop in one district center at night time  so that female travelers may board the flight easily and without any fear</t>
   </si>
   <si>
     <t>from entry to exit its was guided and maintained well.</t>
   </si>
   <si>
-    <t>the airport also clean and fresh.</t>
-  </si>
-  <si>
-    <t>airport is well maintained, cleaned and disinfected thoroughly.</t>
-  </si>
-  <si>
-    <t>neat clean and luxurious.</t>
-  </si>
-  <si>
     <t>https://www.google.com/maps/contrib/108612927997029907886?hl=en-IN</t>
   </si>
   <si>
     <t>https://www.google.com/maps/contrib/100756697861900194649?hl=en-IN</t>
   </si>
   <si>
+    <t>it's infrastructure is very impressive.</t>
+  </si>
+  <si>
+    <t>banglore airport is like a palace for the people , the facilities the infrastructure</t>
+  </si>
+  <si>
     <t>you will come, take boarding passes on your own from vending machines and even bag tags.</t>
   </si>
   <si>
-    <t>it's infrastructure is very impressive.</t>
-  </si>
-  <si>
-    <t>banglore airport is like a palace for the people , the facilities the infrastructure</t>
-  </si>
-  <si>
     <t>https://www.google.com/maps/contrib/109912751375969844218?hl=en-IN</t>
   </si>
   <si>
     <t>https://www.google.com/maps/contrib/114389758307511614241?hl=en-IN</t>
   </si>
   <si>
-    <t>security could be improved once the entry is made into the airport premises, specially in covid situation</t>
-  </si>
-  <si>
     <t>the staff is polite and helpful.</t>
-  </si>
-  <si>
-    <t>thanks to every staffs.</t>
   </si>
   <si>
     <t xml:space="preserve">helpful staff, overall experience was very good. 
@@ -202,6 +196,12 @@
   </si>
   <si>
     <t>thanks to the staff anyways for keeping up with the crowd patiently.</t>
+  </si>
+  <si>
+    <t>security could be improved once the entry is made into the airport premises, specially in covid situation</t>
+  </si>
+  <si>
+    <t>thanks to every staffs.</t>
   </si>
   <si>
     <t>from immigration ans security staff all the way to check-in and handlers everyone is courteous and diligent.</t>
@@ -599,7 +599,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -607,7 +607,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -615,7 +615,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -623,7 +623,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -710,7 +710,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>34</v>
@@ -718,7 +718,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>35</v>
@@ -726,66 +726,66 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -793,20 +793,20 @@
         <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
         <v>45</v>
@@ -814,7 +814,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B18" t="s">
         <v>46</v>
@@ -880,7 +880,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
         <v>51</v>
@@ -888,7 +888,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
         <v>52</v>
@@ -896,7 +896,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>53</v>
@@ -930,7 +930,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>56</v>
@@ -938,7 +938,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
         <v>57</v>
@@ -946,18 +946,18 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -965,39 +965,39 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/SMA/home/static/home/Outputs/topic_reviews.xlsx
+++ b/SMA/home/static/home/Outputs/topic_reviews.xlsx
@@ -25,58 +25,76 @@
     <t>Review</t>
   </si>
   <si>
+    <t>https://www.google.com/maps/contrib/105860843696060460741/reviews?hl=en-IN</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/contrib/108566645405997000957/reviews?hl=en-IN</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/contrib/108730543139023019599/reviews?hl=en-IN</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/contrib/111683102083341712265/reviews?hl=en-IN</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/contrib/101650512985775482283/reviews?hl=en-IN</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/contrib/106276441353478437850/reviews?hl=en-IN</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/contrib/105092714454122649316/reviews?hl=en-IN</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/contrib/113693264584357107114/reviews?hl=en-IN</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/contrib/114652258656149212515/reviews?hl=en-IN</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/contrib/105457528177187418593/reviews?hl=en-IN</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/contrib/109548102374173254967/reviews?hl=en-IN</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/contrib/117110144818048233946/reviews?hl=en-IN</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/contrib/111765111215069276943/reviews?hl=en-IN</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/contrib/116624721848927280461/reviews?hl=en-IN</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/contrib/110490731292375435999/reviews?hl=en-IN</t>
+  </si>
+  <si>
     <t>https://www.google.com/maps/contrib/109495760317461401957/reviews?hl=en-IN</t>
   </si>
   <si>
-    <t>https://www.google.com/maps/contrib/113693264584357107114/reviews?hl=en-IN</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/contrib/114652258656149212515/reviews?hl=en-IN</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/contrib/116624721848927280461/reviews?hl=en-IN</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/contrib/105092714454122649316/reviews?hl=en-IN</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/contrib/106276441353478437850/reviews?hl=en-IN</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/contrib/108566645405997000957/reviews?hl=en-IN</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/contrib/101650512985775482283/reviews?hl=en-IN</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/contrib/105860843696060460741/reviews?hl=en-IN</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/contrib/109548102374173254967/reviews?hl=en-IN</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/contrib/105457528177187418593/reviews?hl=en-IN</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/contrib/108730543139023019599/reviews?hl=en-IN</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/contrib/111765111215069276943/reviews?hl=en-IN</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/contrib/111683102083341712265/reviews?hl=en-IN</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/contrib/117110144818048233946/reviews?hl=en-IN</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/contrib/110490731292375435999/reviews?hl=en-IN</t>
-  </si>
-  <si>
     <t>https://www.google.com/maps/contrib/107280569022141365887/reviews?hl=en-IN</t>
   </si>
   <si>
-    <t>post which we try some foods in the restaurants outside the airport area.</t>
+    <t>lounge, shops, brewery all amazing.</t>
+  </si>
+  <si>
+    <t>food places are expensive, as are in airports everywhere.</t>
+  </si>
+  <si>
+    <t>lounge is pretty good and feels the quality of food needs to be improved.</t>
+  </si>
+  <si>
+    <t>great food courts.</t>
+  </si>
+  <si>
+    <t>there are number of shops available for shopping for all age groups.</t>
+  </si>
+  <si>
+    <t>shops and other food services are also very great.</t>
+  </si>
+  <si>
+    <t>good food options.</t>
   </si>
   <si>
     <t xml:space="preserve">and also one can find good places to eat just in front of the airport entrance .
@@ -86,192 +104,183 @@
     <t>but the food is really good.</t>
   </si>
   <si>
+    <t>lots to eat and shop.</t>
+  </si>
+  <si>
+    <t>many options for shopping for gentlemen, ladies and kids.</t>
+  </si>
+  <si>
+    <t>there are many other food joints inside airport which are well managed and serve good quality food.</t>
+  </si>
+  <si>
+    <t>it's got lot of food places &amp; lot of options available too.</t>
+  </si>
+  <si>
+    <t>shops are good!</t>
+  </si>
+  <si>
     <t xml:space="preserve">many other facilities like food, cabs,buses to cities are easily available from here even buses for mysuru is also available from here.
 </t>
   </si>
   <si>
-    <t>good food options.</t>
-  </si>
-  <si>
-    <t>shops and other food services are also very great.</t>
-  </si>
-  <si>
-    <t>food places are expensive, as are in airports everywhere.</t>
-  </si>
-  <si>
-    <t>there are number of shops available for shopping for all age groups.</t>
-  </si>
-  <si>
-    <t>lounge, shops, brewery all amazing.</t>
-  </si>
-  <si>
-    <t>many options for shopping for gentlemen, ladies and kids.</t>
-  </si>
-  <si>
-    <t>lots to eat and shop.</t>
-  </si>
-  <si>
-    <t>lounge is pretty good and feels the quality of food needs to be improved.</t>
-  </si>
-  <si>
-    <t>shops are good!</t>
-  </si>
-  <si>
-    <t>there are many other food joints inside airport which are well managed and serve good quality food.</t>
-  </si>
-  <si>
-    <t>great food courts.</t>
-  </si>
-  <si>
-    <t>toilets are clean, water provided, and especially during covid, i've seen such a drastic change in behaviour, and management.</t>
-  </si>
-  <si>
     <t>the only con that i felt- the prices of the food items are sky-rocketing.</t>
-  </si>
-  <si>
-    <t>it's got lot of food places &amp; lot of options available too.</t>
   </si>
   <si>
     <t xml:space="preserve">from cleaning to serving food or coffee.
 </t>
   </si>
   <si>
+    <t>post which we try some foods in the restaurants outside the airport area.</t>
+  </si>
+  <si>
+    <t>toilets are clean, water provided, and especially during covid, i've seen such a drastic change in behaviour, and management.</t>
+  </si>
+  <si>
     <t>only thing i can think of is maybe having more stores with affordable prices for food.</t>
   </si>
   <si>
+    <t>https://www.google.com/maps/contrib/115605418386664492925/reviews?hl=en-IN</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/contrib/112051696625738934925/reviews?hl=en-IN</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/contrib/111016261082164778897/reviews?hl=en-IN</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/contrib/105774458438364139280/reviews?hl=en-IN</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/contrib/103447346783420062302/reviews?hl=en-IN</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/contrib/105496234116005514130/reviews?hl=en-IN</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/contrib/104013096443293001650/reviews?hl=en-IN</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/contrib/101229667316057079978/reviews?hl=en-IN</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/contrib/104920635962997424284/reviews?hl=en-IN</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/contrib/113467385370582278408/reviews?hl=en-IN</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/contrib/103138175816824111634/reviews?hl=en-IN</t>
+  </si>
+  <si>
     <t>https://www.google.com/maps/contrib/103326321623847533298/reviews?hl=en-IN</t>
   </si>
   <si>
-    <t>https://www.google.com/maps/contrib/105774458438364139280/reviews?hl=en-IN</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/contrib/101229667316057079978/reviews?hl=en-IN</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/contrib/104013096443293001650/reviews?hl=en-IN</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/contrib/113467385370582278408/reviews?hl=en-IN</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/contrib/112051696625738934925/reviews?hl=en-IN</t>
-  </si>
-  <si>
     <t>https://www.google.com/maps/contrib/103838754229570310182/reviews?hl=en-IN</t>
   </si>
   <si>
-    <t>https://www.google.com/maps/contrib/103138175816824111634/reviews?hl=en-IN</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/contrib/103447346783420062302/reviews?hl=en-IN</t>
-  </si>
-  <si>
     <t>https://www.google.com/maps/contrib/101003425249948514081/reviews?hl=en-IN</t>
   </si>
   <si>
-    <t>https://www.google.com/maps/contrib/115605418386664492925/reviews?hl=en-IN</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/contrib/105496234116005514130/reviews?hl=en-IN</t>
+    <t>https://www.google.com/maps/contrib/107105102535990468650/reviews?hl=en-IN</t>
   </si>
   <si>
     <t>https://www.google.com/maps/contrib/101607346145584117862/reviews?hl=en-IN</t>
   </si>
   <si>
-    <t>https://www.google.com/maps/contrib/104920635962997424284/reviews?hl=en-IN</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/contrib/107105102535990468650/reviews?hl=en-IN</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/contrib/111016261082164778897/reviews?hl=en-IN</t>
+    <t>neat and clean... wonderful and perfect maintenance....</t>
+  </si>
+  <si>
+    <t>toilets &amp; floors are clean.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the airport is very clean and the security staff don't touch your phone or boarding pass or id cards unlike some airports.
+</t>
+  </si>
+  <si>
+    <t>very clean and scenic view in the devloping stage.</t>
+  </si>
+  <si>
+    <t>very well maintained lounges.</t>
+  </si>
+  <si>
+    <t>still, a good combination of modern clean aesthetics with a mix of natural beauties and traditional art.</t>
+  </si>
+  <si>
+    <t>though airport is crowded, the management is doing a good work to maintain flow of …</t>
+  </si>
+  <si>
+    <t>very neat and clean airport of bangalore.</t>
+  </si>
+  <si>
+    <t>feels fresh and clean.</t>
+  </si>
+  <si>
+    <t>well maintained, even during the pandemic.</t>
+  </si>
+  <si>
+    <t>very well maintained.</t>
+  </si>
+  <si>
+    <t>the airport looks neat and clean.</t>
+  </si>
+  <si>
+    <t>they have maintained the airport very well even in the covid pandemic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clean and tidy..
+</t>
+  </si>
+  <si>
+    <t>the airport is well maintained in general.</t>
+  </si>
+  <si>
+    <t>good clean airport.</t>
+  </si>
+  <si>
+    <t>airport is very neet and clean.</t>
+  </si>
+  <si>
+    <t>very neatly maintained with all safety protocols.</t>
   </si>
   <si>
     <t>very systematic..helpful staff, clean surroundings.</t>
   </si>
   <si>
-    <t>airport is very neet and clean.</t>
-  </si>
-  <si>
     <t>very neat and clean.</t>
   </si>
   <si>
-    <t>feels fresh and clean.</t>
-  </si>
-  <si>
-    <t>very well maintained.</t>
+    <t>the cleanest and most inviting airport</t>
+  </si>
+  <si>
+    <t>it's clean and one of the best international airports in india.</t>
+  </si>
+  <si>
+    <t>otherwise it is a very large and beautiful airport which is very well maintained.</t>
+  </si>
+  <si>
+    <t>well maintained, clean and tidy...</t>
   </si>
   <si>
     <t xml:space="preserve">never seen such a clean and biggest airport in india.
 </t>
   </si>
   <si>
-    <t>good clean airport.</t>
-  </si>
-  <si>
-    <t>well maintained, even during the pandemic.</t>
-  </si>
-  <si>
-    <t>they have maintained the airport very well even in the covid pandemic.</t>
-  </si>
-  <si>
-    <t>toilets &amp; floors are clean.</t>
-  </si>
-  <si>
-    <t>very neatly maintained with all safety protocols.</t>
-  </si>
-  <si>
-    <t>the airport is well maintained in general.</t>
-  </si>
-  <si>
-    <t>though airport is crowded, the management is doing a good work to maintain flow of …</t>
-  </si>
-  <si>
-    <t>still, a good combination of modern clean aesthetics with a mix of natural beauties and traditional art.</t>
-  </si>
-  <si>
-    <t>otherwise it is a very large and beautiful airport which is very well maintained.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">clean and tidy..
-</t>
-  </si>
-  <si>
-    <t>very neat and clean airport of bangalore.</t>
-  </si>
-  <si>
     <t>everything was so hygiene</t>
   </si>
   <si>
-    <t>well maintained, clean and tidy...</t>
-  </si>
-  <si>
-    <t>the airport looks neat and clean.</t>
-  </si>
-  <si>
-    <t>very well maintained lounges.</t>
-  </si>
-  <si>
-    <t>the cleanest and most inviting airport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">the airport is very clean and the security staff don't touch your phone or boarding pass or id cards unlike some airports.
-</t>
-  </si>
-  <si>
-    <t>very clean and scenic view in the devloping stage.</t>
-  </si>
-  <si>
-    <t>neat and clean... wonderful and perfect maintenance....</t>
-  </si>
-  <si>
-    <t>it's clean and one of the best international airports in india.</t>
-  </si>
-  <si>
     <t>https://www.google.com/maps/contrib/112045707936537245205/reviews?hl=en-IN</t>
   </si>
   <si>
+    <t>very well managed, proper sanitized and all the process from collecting boarding pass to bag tag is touch free, so contamination chances are minimal.</t>
+  </si>
+  <si>
     <t>the baggage dropping and security check-in was hassle free.</t>
+  </si>
+  <si>
+    <t>well infrastructure.</t>
+  </si>
+  <si>
+    <t>airport has multiple kiosks for generating boarding pass and baggage tags, this makes boarding procedures easy..</t>
   </si>
   <si>
     <t>from security check at entrance to baggage drop to security till the gates to enter your airplane.</t>
@@ -281,90 +290,81 @@
 </t>
   </si>
   <si>
-    <t>very well managed, proper sanitized and all the process from collecting boarding pass to bag tag is touch free, so contamination chances are minimal.</t>
-  </si>
-  <si>
-    <t>airport has multiple kiosks for generating boarding pass and baggage tags, this makes boarding procedures easy..</t>
-  </si>
-  <si>
-    <t>well infrastructure.</t>
+    <t>https://www.google.com/maps/contrib/114310574137102925339/reviews?hl=en-IN</t>
   </si>
   <si>
     <t>https://www.google.com/maps/contrib/113439745731267614614/reviews?hl=en-IN</t>
   </si>
   <si>
+    <t>https://www.google.com/maps/contrib/116066450977002841430/reviews?hl=en-IN</t>
+  </si>
+  <si>
     <t>https://www.google.com/maps/contrib/106831633538927671647/reviews?hl=en-IN</t>
   </si>
   <si>
-    <t>https://www.google.com/maps/contrib/116066450977002841430/reviews?hl=en-IN</t>
-  </si>
-  <si>
     <t>https://www.google.com/maps/contrib/107885574333528249617/reviews?hl=en-IN</t>
   </si>
   <si>
-    <t>https://www.google.com/maps/contrib/114310574137102925339/reviews?hl=en-IN</t>
-  </si>
-  <si>
-    <t>what i loved is the security check</t>
-  </si>
-  <si>
-    <t>apart from the security gate, everything works smooth.</t>
+    <t>this was one of a kind experience.. very friendly staffs and nice ambience with live match playing on the screen.</t>
+  </si>
+  <si>
+    <t>the security service was better than others even in covid-19</t>
+  </si>
+  <si>
+    <t>really fast processes and kind staff.</t>
+  </si>
+  <si>
+    <t>most of all, 99% of people who come here- be it passengers or staff of the airport, behave responsibly.</t>
+  </si>
+  <si>
+    <t>the staff is polite and helpful.</t>
+  </si>
+  <si>
+    <t>i've ever been too, some staff are really friendly, some have been doing the job for too long that they've stopped putting in that extra effort to add to the pizzazz of the place.</t>
+  </si>
+  <si>
+    <t>world class facilities with tight security.</t>
   </si>
   <si>
     <t>the cleaning staff are very proactive.</t>
   </si>
   <si>
-    <t>the airport staff is helpful!</t>
-  </si>
-  <si>
-    <t>i think bangalore is one of the best airports in india equipped with latest technology such as contact less screening and paperless security check in which makes it technology efficient in true sense.</t>
+    <t>staff members are really helpful.</t>
   </si>
   <si>
     <t>one cannot take their eyes from the beautiful view, discipline and how the airport staff manages everything.</t>
-  </si>
-  <si>
-    <t>most of all, 99% of people who come here- be it passengers or staff of the airport, behave responsibly.</t>
   </si>
   <si>
     <t xml:space="preserve">in.it has automated tray system and swift security check in.
 </t>
   </si>
   <si>
-    <t>staff members are really helpful.</t>
-  </si>
-  <si>
-    <t>world class facilities with tight security.</t>
-  </si>
-  <si>
-    <t>from the ground staff till u board, everything is smooth and easy.</t>
-  </si>
-  <si>
-    <t>friendly staff and quick process.</t>
-  </si>
-  <si>
     <t xml:space="preserve">during this pandemic allmost all are following the covid rules and regulations, all flight staffs ensure that every passenger is safe.
 </t>
   </si>
   <si>
-    <t>the staff is polite and helpful.</t>
-  </si>
-  <si>
-    <t>really fast processes and kind staff.</t>
+    <t>what i loved is the security check</t>
+  </si>
+  <si>
+    <t>staff is supportive.</t>
+  </si>
+  <si>
+    <t>friendly staff and quick process.</t>
+  </si>
+  <si>
+    <t>i think bangalore is one of the best airports in india equipped with latest technology such as contact less screening and paperless security check in which makes it technology efficient in true sense.</t>
+  </si>
+  <si>
+    <t>apart from the security gate, everything works smooth.</t>
+  </si>
+  <si>
+    <t>the airport staff is helpful!</t>
   </si>
   <si>
     <t>the staff is too good.</t>
   </si>
   <si>
-    <t>staff is supportive.</t>
-  </si>
-  <si>
-    <t>this was one of a kind experience.. very friendly staffs and nice ambience with live match playing on the screen.</t>
-  </si>
-  <si>
-    <t>i've ever been too, some staff are really friendly, some have been doing the job for too long that they've stopped putting in that extra effort to add to the pizzazz of the place.</t>
-  </si>
-  <si>
-    <t>the security service was better than others even in covid-19</t>
+    <t>from the ground staff till u board, everything is smooth and easy.</t>
   </si>
 </sst>
 </file>
@@ -839,7 +839,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
         <v>30</v>
@@ -847,7 +847,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>31</v>
@@ -855,7 +855,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>32</v>
@@ -871,7 +871,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
         <v>34</v>
@@ -879,7 +879,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>35</v>
@@ -887,7 +887,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>36</v>
@@ -895,7 +895,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B20" t="s">
         <v>37</v>
@@ -954,7 +954,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
         <v>55</v>
@@ -962,7 +962,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
         <v>56</v>
@@ -978,7 +978,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -986,7 +986,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
         <v>59</v>
@@ -994,7 +994,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
         <v>60</v>
@@ -1002,7 +1002,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
         <v>61</v>
@@ -1010,7 +1010,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
         <v>62</v>
@@ -1018,7 +1018,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
         <v>63</v>
@@ -1026,7 +1026,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
         <v>64</v>
@@ -1034,7 +1034,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
         <v>65</v>
@@ -1042,7 +1042,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
         <v>66</v>
@@ -1050,7 +1050,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B14" t="s">
         <v>67</v>
@@ -1058,7 +1058,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s">
         <v>68</v>
@@ -1066,7 +1066,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
         <v>69</v>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B17" t="s">
         <v>70</v>
@@ -1098,7 +1098,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="B20" t="s">
         <v>73</v>
@@ -1106,31 +1106,31 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B24" t="s">
         <v>76</v>
@@ -1138,7 +1138,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="B25" t="s">
         <v>77</v>
@@ -1146,7 +1146,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B26" t="s">
         <v>78</v>
@@ -1154,34 +1154,34 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>79</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="B29" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1238,39 +1238,39 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
         <v>85</v>
@@ -1278,7 +1278,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>86</v>
@@ -1286,7 +1286,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="B8" t="s">
         <v>87</v>
@@ -1324,7 +1324,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
         <v>93</v>
@@ -1332,7 +1332,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s">
         <v>94</v>
@@ -1340,15 +1340,15 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
         <v>95</v>
@@ -1356,7 +1356,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>96</v>
@@ -1364,98 +1364,98 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>3</v>
+        <v>89</v>
       </c>
       <c r="B10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>89</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="B16" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1463,15 +1463,15 @@
         <v>91</v>
       </c>
       <c r="B19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1479,31 +1479,31 @@
         <v>45</v>
       </c>
       <c r="B21" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="B24" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1511,15 +1511,15 @@
         <v>92</v>
       </c>
       <c r="B25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="B26" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
